--- a/assets/spreadsheet/detailed_schedule_single_cell_transcriptomics.xlsx
+++ b/assets/spreadsheet/detailed_schedule_single_cell_transcriptomics.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geertvangeest/Documents/repositories/single-cell-training/assets/spreadsheet/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BD7A371-39DA-4B4A-B2A1-FFBF102AE211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="03.2023" sheetId="1" r:id="rId1"/>
     <sheet name="07.2023" sheetId="2" r:id="rId2"/>
     <sheet name="11.2023" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="49">
   <si>
     <t>day</t>
   </si>
@@ -187,8 +184,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -223,6 +220,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -278,8 +282,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -298,10 +307,31 @@
     <xf numFmtId="20" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA4C2F4"/>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -560,21 +590,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="53.6640625" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -618,7 +648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -635,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -656,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -673,7 +703,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -694,7 +724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -715,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -729,7 +759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -750,7 +780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -771,7 +801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -792,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -806,7 +836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -827,7 +857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -848,7 +878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -867,7 +897,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -887,7 +917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -904,7 +934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -922,7 +952,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -942,7 +972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -956,7 +986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -974,7 +1004,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -994,7 +1024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -1008,7 +1038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -1026,7 +1056,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -1046,7 +1076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -1064,7 +1094,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -1084,7 +1114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -1098,7 +1128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -1118,7 +1148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -1132,7 +1162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -1152,7 +1182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -1166,7 +1196,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>3</v>
       </c>
@@ -1184,7 +1214,7 @@
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -1200,6 +1230,679 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1004">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="presentation">
+      <formula>NOT(ISERROR(SEARCH(("presentation"),(E1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="exercises">
+      <formula>NOT(ISERROR(SEARCH(("exercises"),(E1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G13" r:id="rId8"/>
+    <hyperlink ref="G14" r:id="rId9"/>
+    <hyperlink ref="G16" r:id="rId10"/>
+    <hyperlink ref="G19" r:id="rId11"/>
+    <hyperlink ref="G22" r:id="rId12"/>
+    <hyperlink ref="G25" r:id="rId13"/>
+    <hyperlink ref="G29" r:id="rId14"/>
+    <hyperlink ref="G31" r:id="rId15"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A29" s="2">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E34">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="presentation">
       <formula>NOT(ISERROR(SEARCH(("presentation"),(E1))))</formula>
     </cfRule>
@@ -1208,41 +1911,48 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G13" r:id="rId8"/>
+    <hyperlink ref="G14" r:id="rId9"/>
+    <hyperlink ref="G16" r:id="rId10"/>
+    <hyperlink ref="G19" r:id="rId11"/>
+    <hyperlink ref="G22" r:id="rId12"/>
+    <hyperlink ref="G25" r:id="rId13"/>
+    <hyperlink ref="G29" r:id="rId14"/>
+    <hyperlink ref="G31" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,21 +1969,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C2" s="3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>0.38541666666666669</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.39583333333333331</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1281,20 +1988,19 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C3" s="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
         <v>0.39583333333333331</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.40625</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -1303,14 +2009,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C4" s="3">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.40625</v>
+      </c>
+      <c r="C4" s="9">
         <v>0.4375</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1319,37 +2025,35 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>0.4375</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.46875</v>
+      <c r="C6" s="9">
+        <v>0.47222222222222227</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -1357,20 +2061,19 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.46875</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.49305555555555558</v>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.50069444444444444</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1378,34 +2081,33 @@
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
         <v>0.5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.59375</v>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.58680555555555558</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -1413,20 +2115,19 @@
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.59375</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.61111111111111116</v>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.60277777777777775</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -1434,19 +2135,18 @@
       <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="C11" s="3">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="C11" s="9">
         <v>0.63541666666666663</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1455,33 +2155,32 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.65625</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="9">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.65625</v>
-      </c>
-      <c r="C13" s="3">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C13" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1490,19 +2189,18 @@
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>0.6875</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1511,20 +2209,19 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.41666666666666669</v>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.42708333333333331</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -1532,17 +2229,16 @@
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C16" s="11">
         <v>0.4375</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1551,998 +2247,373 @@
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11">
         <v>0.4375</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="11">
         <v>0.47916666666666669</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.51041666666666663</v>
+      <c r="C19" s="11">
+        <v>0.49305555555555558</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D20" s="2" t="s">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="10">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.58333333333333337</v>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="10">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.57291666666666663</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.60416666666666663</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="10">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.58680555555555558</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="10">
+        <v>2</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="10">
+        <v>2</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.70833333333333337</v>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="10">
+        <v>2</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.65625</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A26" s="10">
+        <v>2</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.65625</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C26" s="3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="12">
+        <v>3</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="12">
+        <v>3</v>
+      </c>
+      <c r="B28" s="13">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="C28" s="13">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="12">
+        <v>3</v>
+      </c>
+      <c r="B29" s="13">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="13">
         <v>0.44097222222222221</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="12">
+        <v>3</v>
+      </c>
+      <c r="B30" s="13">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="13">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>3</v>
-      </c>
-      <c r="B30" s="3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="12">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="13">
         <v>0.5625</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>3</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="C31" s="3">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A32" s="12">
+        <v>3</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C32" s="13">
         <v>0.59375</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>3</v>
-      </c>
-      <c r="B32" s="3">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="12">
+        <v>3</v>
+      </c>
+      <c r="B33" s="13">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="13">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="12">
+        <v>3</v>
+      </c>
+      <c r="B34" s="13">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="13">
         <v>0.625</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="12">
+        <v>3</v>
+      </c>
+      <c r="B35" s="13">
         <v>0.625</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C35" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E34">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="presentation">
+  <conditionalFormatting sqref="E1:E20 E22:E35">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="presentation">
       <formula>NOT(ISERROR(SEARCH(("presentation"),(E1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="exercises">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="exercises">
       <formula>NOT(ISERROR(SEARCH(("exercises"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="G13" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="G14" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="G16" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="G22" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="G25" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="G29" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="G31" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66771EB1-A41A-154A-8249-FE599080F331}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="40.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0.375</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.4375</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.4375</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.46875</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.46875</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.59375</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0.59375</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.65625</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0.65625</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.6875</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
-        <v>2</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>2</v>
-      </c>
-      <c r="B16" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
-        <v>2</v>
-      </c>
-      <c r="B17" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
-        <v>2</v>
-      </c>
-      <c r="B18" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
-        <v>2</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
-        <v>2</v>
-      </c>
-      <c r="B20" s="11">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
-        <v>2</v>
-      </c>
-      <c r="B21" s="11">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
-        <v>2</v>
-      </c>
-      <c r="B23" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
-        <v>2</v>
-      </c>
-      <c r="B24" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
-        <v>2</v>
-      </c>
-      <c r="B25" s="11">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12">
-        <v>3</v>
-      </c>
-      <c r="B26" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="C26" s="13">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12">
-        <v>3</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="C28" s="13">
-        <v>0.44097222222222221</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12">
-        <v>3</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="C29" s="13">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12">
-        <v>3</v>
-      </c>
-      <c r="B30" s="13">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C30" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12">
-        <v>3</v>
-      </c>
-      <c r="B31" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.59375</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12">
-        <v>3</v>
-      </c>
-      <c r="B32" s="13">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12">
-        <v>3</v>
-      </c>
-      <c r="B33" s="13">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12">
-        <v>3</v>
-      </c>
-      <c r="B34" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="C34" s="13">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E1:E34">
+  <conditionalFormatting sqref="E21">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="presentation">
-      <formula>NOT(ISERROR(SEARCH(("presentation"),(E1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("presentation"),(E21))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="exercises">
-      <formula>NOT(ISERROR(SEARCH(("exercises"),(E1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("exercises"),(E21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{FDD819F9-016F-E044-827F-DD63CC58F8F7}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{5100DA53-38D7-1F49-856D-9F5C33FE55A0}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{EA1E0282-E537-0A41-91D0-2C87269A4EBD}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{7DC6003E-C246-8644-B3BA-B4B13B7F7A07}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{829EB2D4-BA03-EE44-9C3D-0841972EDDED}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{6664BF71-3E96-1C49-9F72-885202D3BD5F}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{BDF1B282-C46C-C340-BC05-F6B3598EA883}"/>
-    <hyperlink ref="F13" r:id="rId8" xr:uid="{54420E39-51E6-6F49-8466-8F0D7DF89313}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{2C58419D-6692-5142-940D-079EF193E88D}"/>
-    <hyperlink ref="F16" r:id="rId10" xr:uid="{05113FC8-188B-C24D-8DAE-2E836B2A64E7}"/>
-    <hyperlink ref="F19" r:id="rId11" xr:uid="{D0D2D765-0F7B-FC47-8F3E-CCD6E90DD166}"/>
-    <hyperlink ref="F22" r:id="rId12" xr:uid="{D7121B24-2B8F-F348-86AD-107FFD9A1FD3}"/>
-    <hyperlink ref="F25" r:id="rId13" xr:uid="{84439D6D-ECDD-4044-B0E9-32F2E1EAE24D}"/>
-    <hyperlink ref="F29" r:id="rId14" xr:uid="{82175878-12A5-594D-9EDE-23548BAF36C9}"/>
-    <hyperlink ref="F31" r:id="rId15" xr:uid="{0FB69C69-A8AF-7943-BF9E-E37B2AC5663C}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F13" r:id="rId8"/>
+    <hyperlink ref="F14" r:id="rId9"/>
+    <hyperlink ref="F16" r:id="rId10"/>
+    <hyperlink ref="F19" r:id="rId11"/>
+    <hyperlink ref="F23" r:id="rId12"/>
+    <hyperlink ref="F26" r:id="rId13"/>
+    <hyperlink ref="F30" r:id="rId14"/>
+    <hyperlink ref="F32" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>